--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Registered to Vote.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Registered to Vote.xlsx
@@ -33958,62 +33958,62 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -34027,62 +34027,62 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>

--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Registered to Vote.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Registered to Vote.xlsx
@@ -577,62 +577,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.518</t>
+          <t>0.554</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.459</t>
+          <t>0.409</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.580</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.545</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.455</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.400</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.024 (P = 0.182)</t>
+          <t>-0.005 (P = 0.617)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.027 (P = 0.141)</t>
+          <t>-0.007 (P = 0.431)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.024 (P = 0.761)</t>
+          <t>0.045 (P = 0.420)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.180 (P = 0.514)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.252</t>
+          <t>6.164</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.187</t>
+          <t>6.127</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.867</t>
+          <t>6.673</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.236</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.235</t>
+          <t>6.236</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -897,22 +897,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.846)</t>
+          <t>0.072 (P = 0.305)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.006 (P = 0.944)</t>
+          <t>0.067 (P = 0.359)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0.001 (P = 0.996)</t>
+          <t>0.192 (P = 0.480)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.564 (P = 0.646)</t>
+          <t>-0.200 (P = 0.704)</t>
         </is>
       </c>
     </row>
@@ -1207,22 +1207,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.404</t>
+          <t>3.941</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.305</t>
+          <t>3.895</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.312</t>
+          <t>4.635</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6.139</t>
+          <t>5.600</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1247,22 +1247,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.970)</t>
+          <t>0.467 (P = 0.000)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.057 (P = 0.590)</t>
+          <t>0.467 (P = 0.000)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-0.293 (P = 0.491)</t>
+          <t>0.385 (P = 0.205)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.861 (P = 0.430)</t>
+          <t>1.400 (P = 0.552)</t>
         </is>
       </c>
     </row>
@@ -1556,22 +1556,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.695</t>
+          <t>6.777</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.661</t>
+          <t>6.755</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.062</t>
+          <t>7.115</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.014</t>
+          <t>7.600</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.001)</t>
+          <t>0.200 (P = 0.022)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.303 (P = 0.001)</t>
+          <t>0.209 (P = 0.022)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.562)</t>
+          <t>0.135 (P = 0.677)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.214 (P = 0.796)</t>
+          <t>-0.800 (P = 0.294)</t>
         </is>
       </c>
     </row>
@@ -1906,22 +1906,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.356</t>
+          <t>6.456</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.324</t>
+          <t>6.455</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.711</t>
+          <t>6.365</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6.625</t>
+          <t>7.600</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1946,22 +1946,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.146 (P = 0.100)</t>
+          <t>0.046 (P = 0.616)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.179 (P = 0.052)</t>
+          <t>0.047 (P = 0.616)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-0.288 (P = 0.421)</t>
+          <t>0.058 (P = 0.875)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.575 (P = 0.614)</t>
+          <t>-0.400 (P = 0.477)</t>
         </is>
       </c>
     </row>
@@ -2256,22 +2256,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.603</t>
+          <t>5.458</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.541</t>
+          <t>5.446</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.170</t>
+          <t>5.615</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6.653</t>
+          <t>6.200</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2296,22 +2296,22 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.381 (P = 0.000)</t>
+          <t>0.525 (P = 0.000)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.441 (P = 0.000)</t>
+          <t>0.537 (P = 0.000)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-0.324 (P = 0.411)</t>
+          <t>0.231 (P = 0.472)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.947 (P = 0.437)</t>
+          <t>1.400 (P = 0.263)</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.130</t>
+          <t>6.132</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.116</t>
+          <t>6.135</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.278</t>
+          <t>5.942</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.319</t>
+          <t>7.400</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>6.004</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6.003</t>
+          <t>6.007</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2646,22 +2646,22 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-0.130 (P = 0.194)</t>
+          <t>-0.128 (P = 0.198)</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-0.113 (P = 0.279)</t>
+          <t>-0.128 (P = 0.211)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-0.509 (P = 0.233)</t>
+          <t>-0.173 (P = 0.697)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.481 (P = 0.166)</t>
+          <t>0.400 (P = 0.587)</t>
         </is>
       </c>
     </row>
@@ -2956,22 +2956,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.197</t>
+          <t>3.883</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.119</t>
+          <t>3.884</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.924</t>
+          <t>3.904</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>3.600</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2996,22 +2996,22 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.214 (P = 0.023)</t>
+          <t>0.528 (P = 0.000)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.293 (P = 0.003)</t>
+          <t>0.528 (P = 0.000)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-0.636 (P = 0.147)</t>
+          <t>0.385 (P = 0.372)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.100 (P = 0.933)</t>
+          <t>2.000 (P = 0.413)</t>
         </is>
       </c>
     </row>
@@ -3306,37 +3306,37 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.211</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.215</t>
+          <t>7.332</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.202</t>
+          <t>7.043</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6.885</t>
+          <t>8.250</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7.437</t>
+          <t>7.481</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7.433</t>
+          <t>7.479</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7.438</t>
+          <t>7.457</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3346,22 +3346,22 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.226 (P = 0.004)</t>
+          <t>0.159 (P = 0.030)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.218 (P = 0.007)</t>
+          <t>0.147 (P = 0.054)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0.236 (P = 0.447)</t>
+          <t>0.413 (P = 0.138)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1.365 (P = 0.166)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -3656,37 +3656,37 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.891</t>
+          <t>5.257</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.792</t>
+          <t>5.231</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6.046</t>
+          <t>5.725</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6.212</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>5.334</t>
+          <t>5.343</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5.313</t>
+          <t>5.310</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5.583</t>
+          <t>5.850</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3696,22 +3696,22 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.443 (P = 0.000)</t>
+          <t>0.086 (P = 0.347)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.521 (P = 0.000)</t>
+          <t>0.079 (P = 0.405)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>-0.463 (P = 0.362)</t>
+          <t>0.125 (P = 0.722)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1.038 (P = 0.494)</t>
+          <t>1.250 (P = 0.391)</t>
         </is>
       </c>
     </row>
@@ -4006,37 +4006,37 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.287</t>
+          <t>7.409</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.347</t>
+          <t>7.424</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>6.666</t>
+          <t>6.976</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.098</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>7.278</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.245</t>
+          <t>7.345</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>7.848</t>
+          <t>8.024</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4046,22 +4046,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-0.009 (P = 0.929)</t>
+          <t>-0.028 (P = 0.739)</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-0.102 (P = 0.337)</t>
+          <t>-0.079 (P = 0.366)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1.182 (P = 0.001)</t>
+          <t>1.048 (P = 0.007)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>3.402 (P = 0.022)</t>
+          <t>-0.500 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -4356,62 +4356,62 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.734</t>
+          <t>5.793</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.647</t>
+          <t>5.750</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>6.716</t>
+          <t>6.476</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>6.980</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5.403</t>
+          <t>5.439</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.351</t>
+          <t>5.397</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>6.280</t>
+          <t>6.167</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-0.331 (P = 0.002)</t>
+          <t>-0.354 (P = 0.000)</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-0.296 (P = 0.008)</t>
+          <t>-0.353 (P = 0.000)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>-0.436 (P = 0.331)</t>
+          <t>-0.310 (P = 0.415)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>-0.480 (P = 0.745)</t>
+          <t>-1.500 (P = 0.205)</t>
         </is>
       </c>
     </row>
@@ -4706,62 +4706,62 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>6.540</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6.146</t>
+          <t>6.518</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6.862</t>
+          <t>6.816</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6.583</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6.257</t>
+          <t>6.389</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6.245</t>
+          <t>6.356</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>6.304</t>
+          <t>6.947</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>8.333</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.057 (P = 0.612)</t>
+          <t>-0.151 (P = 0.059)</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.098 (P = 0.394)</t>
+          <t>-0.162 (P = 0.049)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>-0.558 (P = 0.260)</t>
+          <t>0.132 (P = 0.699)</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1.917 (P = 0.019)</t>
+          <t>-0.667 (P = 0.184)</t>
         </is>
       </c>
     </row>
@@ -5056,37 +5056,37 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6.262</t>
+          <t>6.674</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6.217</t>
+          <t>6.671</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6.775</t>
+          <t>6.564</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>6.702</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6.423</t>
+          <t>6.475</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6.413</t>
+          <t>6.463</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>6.646</t>
+          <t>6.744</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5096,22 +5096,22 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.161 (P = 0.119)</t>
+          <t>-0.199 (P = 0.025)</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.196 (P = 0.068)</t>
+          <t>-0.207 (P = 0.020)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>-0.129 (P = 0.752)</t>
+          <t>0.179 (P = 0.729)</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>-0.702 (P = 0.592)</t>
+          <t>-4.000 (P = 0.295)</t>
         </is>
       </c>
     </row>
@@ -5406,62 +5406,62 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5.930</t>
+          <t>5.869</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5.892</t>
+          <t>5.861</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6.329</t>
+          <t>5.905</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>6.767</t>
+          <t>7.667</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>5.496</t>
+          <t>5.585</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>5.481</t>
+          <t>5.578</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.766</t>
+          <t>5.667</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-0.433 (P = 0.000)</t>
+          <t>-0.284 (P = 0.004)</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-0.410 (P = 0.000)</t>
+          <t>-0.282 (P = 0.004)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>-0.563 (P = 0.219)</t>
+          <t>-0.238 (P = 0.686)</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>-1.017 (P = 0.327)</t>
+          <t>-1.333 (P = 0.184)</t>
         </is>
       </c>
     </row>
@@ -5756,37 +5756,37 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6.931</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6.950</t>
+          <t>7.248</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6.778</t>
+          <t>6.842</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>6.365</t>
+          <t>9.333</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6.395</t>
+          <t>6.510</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>6.357</t>
+          <t>6.466</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>6.977</t>
+          <t>7.263</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5796,22 +5796,22 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-0.536 (P = 0.000)</t>
+          <t>-0.727 (P = 0.000)</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-0.593 (P = 0.000)</t>
+          <t>-0.782 (P = 0.000)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>0.199 (P = 0.627)</t>
+          <t>0.421 (P = 0.511)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2.635 (P = 0.021)</t>
+          <t>-0.333 (P = 0.423)</t>
         </is>
       </c>
     </row>
@@ -6106,62 +6106,62 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>7.330</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>6.866</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7.290</t>
+          <t>7.378</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>6.741</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>6.745</t>
+          <t>6.799</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>6.727</t>
+          <t>6.779</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>7.089</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>8.333</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>-0.149 (P = 0.149)</t>
+          <t>-0.531 (P = 0.000)</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>-0.139 (P = 0.193)</t>
+          <t>-0.543 (P = 0.000)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>-0.290 (P = 0.488)</t>
+          <t>-0.289 (P = 0.447)</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>1.259 (P = 0.112)</t>
+          <t>-0.667 (P = 0.184)</t>
         </is>
       </c>
     </row>
@@ -6456,37 +6456,37 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.089</t>
+          <t>4.271</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4.035</t>
+          <t>4.279</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.739</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.711</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.887</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.778</t>
+          <t>3.837</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4.717</t>
+          <t>4.833</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6496,22 +6496,22 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-0.263 (P = 0.029)</t>
+          <t>-0.384 (P = 0.000)</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-0.257 (P = 0.038)</t>
+          <t>-0.443 (P = 0.000)</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>-0.022 (P = 0.970)</t>
+          <t>0.833 (P = 0.104)</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>0.289 (P = 0.485)</t>
+          <t>-4.000</t>
         </is>
       </c>
     </row>
@@ -6806,62 +6806,62 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6.694</t>
+          <t>7.038</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6.682</t>
+          <t>7.051</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>6.888</t>
+          <t>6.711</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6.400</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6.531</t>
+          <t>6.592</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>6.508</t>
+          <t>6.558</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>6.816</t>
+          <t>7.111</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>9.500</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>-0.163 (P = 0.095)</t>
+          <t>-0.446 (P = 0.000)</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.084)</t>
+          <t>-0.494 (P = 0.000)</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>-0.071 (P = 0.849)</t>
+          <t>0.400 (P = 0.178)</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>1.600 (P = 0.064)</t>
+          <t>1.000 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -7156,62 +7156,62 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6.606</t>
+          <t>6.998</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6.595</t>
+          <t>7.010</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>6.744</t>
+          <t>6.868</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>6.583</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6.936</t>
+          <t>7.109</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>6.957</t>
+          <t>7.102</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>6.560</t>
+          <t>7.184</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.001)</t>
+          <t>0.112 (P = 0.175)</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.362 (P = 0.000)</t>
+          <t>0.092 (P = 0.277)</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>-0.184 (P = 0.644)</t>
+          <t>0.316 (P = 0.383)</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0.417 (P = 0.760)</t>
+          <t>2.667 (P = 0.251)</t>
         </is>
       </c>
     </row>
@@ -7506,62 +7506,62 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.460</t>
+          <t>6.909</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>6.431</t>
+          <t>6.880</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>6.826</t>
+          <t>7.474</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6.435</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>6.705</t>
+          <t>6.789</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>6.718</t>
+          <t>6.795</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>6.512</t>
+          <t>6.658</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>0.245 (P = 0.018)</t>
+          <t>-0.119 (P = 0.195)</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>0.287 (P = 0.008)</t>
+          <t>-0.084 (P = 0.369)</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>-0.314 (P = 0.455)</t>
+          <t>-0.816 (P = 0.088)</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>-0.435 (P = 0.751)</t>
+          <t>-1.000</t>
         </is>
       </c>
     </row>
@@ -7856,37 +7856,37 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7.669</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.811</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7.498</t>
+          <t>7.568</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>7.020</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>7.104</t>
+          <t>7.199</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>7.085</t>
+          <t>7.185</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>7.386</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7896,22 +7896,22 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-0.566 (P = 0.000)</t>
+          <t>-0.605 (P = 0.000)</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-0.605 (P = 0.000)</t>
+          <t>-0.626 (P = 0.000)</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>-0.118 (P = 0.757)</t>
+          <t>-0.182 (P = 0.638)</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>1.313 (P = 0.270)</t>
+          <t>-0.667 (P = 0.423)</t>
         </is>
       </c>
     </row>
@@ -8206,62 +8206,62 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6.592</t>
+          <t>6.398</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6.602</t>
+          <t>6.395</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>6.486</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>6.391</t>
+          <t>9.500</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>6.430</t>
+          <t>6.535</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>6.450</t>
+          <t>6.556</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>5.979</t>
+          <t>5.972</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>7.667</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-0.162 (P = 0.101)</t>
+          <t>0.138 (P = 0.124)</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.133)</t>
+          <t>0.161 (P = 0.074)</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>-0.508 (P = 0.280)</t>
+          <t>-0.306 (P = 0.611)</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>1.275 (P = 0.281)</t>
+          <t>-1.000 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -8556,62 +8556,62 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7.111</t>
+          <t>7.470</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>7.049</t>
+          <t>7.424</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>7.854</t>
+          <t>8.302</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>7.704</t>
+          <t>9.333</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>7.503</t>
+          <t>7.570</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>7.477</t>
+          <t>7.547</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>7.900</t>
+          <t>7.930</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>9.333</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>0.392 (P = 0.000)</t>
+          <t>0.100 (P = 0.136)</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>0.428 (P = 0.000)</t>
+          <t>0.123 (P = 0.073)</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>0.046 (P = 0.900)</t>
+          <t>-0.372 (P = 0.307)</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>1.046 (P = 0.261)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -8906,37 +8906,37 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.996</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>6.376</t>
+          <t>6.988</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>6.983</t>
+          <t>7.057</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>6.739</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>6.717</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>6.687</t>
+          <t>6.754</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>7.244</t>
+          <t>7.200</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -8946,22 +8946,22 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>0.297 (P = 0.015)</t>
+          <t>-0.221 (P = 0.002)</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>0.311 (P = 0.015)</t>
+          <t>-0.235 (P = 0.001)</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.532)</t>
+          <t>0.143 (P = 0.738)</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>1.761 (P = 0.097)</t>
+          <t>-0.500 (P = 0.795)</t>
         </is>
       </c>
     </row>
@@ -9256,62 +9256,62 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4.449</t>
+          <t>4.661</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4.341</t>
+          <t>4.629</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>5.752</t>
+          <t>5.188</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5.898</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5.177</t>
+          <t>5.061</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>5.151</t>
+          <t>5.028</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>5.533</t>
+          <t>5.719</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>7.667</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>0.728 (P = 0.000)</t>
+          <t>0.400 (P = 0.000)</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>0.810 (P = 0.000)</t>
+          <t>0.398 (P = 0.000)</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>-0.218 (P = 0.654)</t>
+          <t>0.531 (P = 0.322)</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>1.769 (P = 0.091)</t>
+          <t>-1.000 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -9606,37 +9606,37 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5.697</t>
+          <t>6.030</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>5.660</t>
+          <t>6.068</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>6.107</t>
+          <t>5.209</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>6.179</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>6.320</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>6.361</t>
+          <t>6.419</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>5.540</t>
+          <t>5.465</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9646,22 +9646,22 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>0.624 (P = 0.000)</t>
+          <t>0.345 (P = 0.000)</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0.701 (P = 0.000)</t>
+          <t>0.351 (P = 0.000)</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>-0.567 (P = 0.275)</t>
+          <t>0.256 (P = 0.496)</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0.821 (P = 0.295)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -9956,62 +9956,62 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5.396</t>
+          <t>5.644</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>5.302</t>
+          <t>5.629</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>6.483</t>
+          <t>5.912</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>6.638</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>5.628</t>
+          <t>5.699</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>5.598</t>
+          <t>5.651</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>6.178</t>
+          <t>6.676</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>6.333</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.049)</t>
+          <t>0.055 (P = 0.546)</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>0.296 (P = 0.016)</t>
+          <t>0.023 (P = 0.803)</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>-0.305 (P = 0.505)</t>
+          <t>0.765 (P = 0.220)</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>-0.305 (P = 0.767)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -10306,62 +10306,62 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.287</t>
+          <t>6.699</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>6.254</t>
+          <t>6.689</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>6.701</t>
+          <t>6.882</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>6.511</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>6.439</t>
+          <t>6.556</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>6.886</t>
+          <t>7.118</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>0.179 (P = 0.117)</t>
+          <t>-0.115 (P = 0.176)</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.119)</t>
+          <t>-0.133 (P = 0.130)</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.643)</t>
+          <t>0.235 (P = 0.450)</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>1.489 (P = 0.271)</t>
+          <t>2.000</t>
         </is>
       </c>
     </row>
@@ -10656,37 +10656,37 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5.279</t>
+          <t>5.514</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>5.200</t>
+          <t>5.438</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>6.237</t>
+          <t>6.902</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>6.085</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5.101</t>
+          <t>5.181</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>5.061</t>
+          <t>5.126</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>5.745</t>
+          <t>6.146</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10696,22 +10696,22 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>-0.179 (P = 0.114)</t>
+          <t>-0.333 (P = 0.001)</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-0.139 (P = 0.236)</t>
+          <t>-0.312 (P = 0.002)</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>-0.493 (P = 0.279)</t>
+          <t>-0.756 (P = 0.108)</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>1.915 (P = 0.511)</t>
+          <t>-0.500 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -11006,62 +11006,62 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5.724</t>
+          <t>6.284</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>5.664</t>
+          <t>6.238</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>6.473</t>
+          <t>7.282</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>6.605</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>6.311</t>
+          <t>6.362</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>6.260</t>
+          <t>6.324</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>7.188</t>
+          <t>7.179</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>0.587 (P = 0.000)</t>
+          <t>0.078 (P = 0.249)</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>0.596 (P = 0.000)</t>
+          <t>0.086 (P = 0.216)</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>0.715 (P = 0.084)</t>
+          <t>-0.103 (P = 0.727)</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>1.145 (P = 0.278)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -11356,37 +11356,37 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3.600</t>
+          <t>3.542</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3.529</t>
+          <t>3.559</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>4.390</t>
+          <t>3.156</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4.526</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>3.776</t>
+          <t>3.769</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3.788</t>
+          <t>3.781</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>3.468</t>
+          <t>3.444</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11396,22 +11396,22 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>0.176 (P = 0.070)</t>
+          <t>0.226 (P = 0.001)</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>0.259 (P = 0.009)</t>
+          <t>0.222 (P = 0.002)</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>-0.922 (P = 0.053)</t>
+          <t>0.289 (P = 0.386)</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0.974 (P = 0.241)</t>
+          <t>1.000 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -11706,62 +11706,62 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.733</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>7.312</t>
+          <t>7.813</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>6.215</t>
+          <t>5.895</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>5.735</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>7.783</t>
+          <t>7.880</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>7.842</t>
+          <t>7.926</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>6.609</t>
+          <t>6.763</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>7.333</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>0.557 (P = 0.000)</t>
+          <t>0.147 (P = 0.031)</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>0.530 (P = 0.000)</t>
+          <t>0.113 (P = 0.102)</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>0.394 (P = 0.336)</t>
+          <t>0.868 (P = 0.015)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>1.599 (P = 0.386)</t>
+          <t>1.500 (P = 0.656)</t>
         </is>
       </c>
     </row>
@@ -12055,62 +12055,62 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.495</t>
+          <t>4.621</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4.466</t>
+          <t>4.626</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.807</t>
+          <t>4.435</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4.981</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>4.823</t>
+          <t>4.829</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4.828</t>
+          <t>4.829</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>4.653</t>
+          <t>4.783</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>0.328 (P = 0.001)</t>
+          <t>0.209 (P = 0.000)</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>0.362 (P = 0.000)</t>
+          <t>0.204 (P = 0.000)</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>-0.154 (P = 0.734)</t>
+          <t>0.348 (P = 0.283)</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0.769 (P = 0.244)</t>
+          <t>-0.500 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -12405,62 +12405,62 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.790</t>
+          <t>4.658</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>4.778</t>
+          <t>4.661</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4.927</t>
+          <t>4.489</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>4.963</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>4.890</t>
+          <t>4.903</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4.877</t>
+          <t>4.883</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>5.082</t>
+          <t>5.267</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>0.100 (P = 0.257)</t>
+          <t>0.246 (P = 0.000)</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>0.099 (P = 0.276)</t>
+          <t>0.222 (P = 0.000)</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>0.155 (P = 0.721)</t>
+          <t>0.778 (P = 0.005)</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0.787 (P = 0.230)</t>
+          <t>-0.500 (P = 0.795)</t>
         </is>
       </c>
     </row>
@@ -12755,62 +12755,62 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7.089</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>7.134</t>
+          <t>7.406</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>6.558</t>
+          <t>6.878</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>6.679</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>7.609</t>
+          <t>7.631</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>7.631</t>
+          <t>7.644</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>7.200</t>
+          <t>7.327</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>0.520 (P = 0.000)</t>
+          <t>0.249 (P = 0.000)</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>0.497 (P = 0.000)</t>
+          <t>0.237 (P = 0.000)</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>0.642 (P = 0.101)</t>
+          <t>0.449 (P = 0.019)</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.821 (P = 0.495)</t>
+          <t>1.000 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -13105,62 +13105,62 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>6.901</t>
+          <t>7.441</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>6.902</t>
+          <t>7.411</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>6.904</t>
+          <t>7.872</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>6.821</t>
+          <t>9.667</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>7.377</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>7.366</t>
+          <t>7.462</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>7.478</t>
+          <t>7.667</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>0.477 (P = 0.000)</t>
+          <t>0.039 (P = 0.672)</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>0.464 (P = 0.000)</t>
+          <t>0.050 (P = 0.600)</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>0.574 (P = 0.176)</t>
+          <t>-0.205 (P = 0.612)</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>1.929 (P = 0.221)</t>
+          <t>0.333 (P = 0.423)</t>
         </is>
       </c>
     </row>
@@ -13454,62 +13454,62 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>6.288</t>
+          <t>6.622</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>6.263</t>
+          <t>6.646</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6.584</t>
+          <t>6.275</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>6.010</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>6.007</t>
+          <t>6.107</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>5.957</t>
+          <t>5.900</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>8.667</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>-0.278 (P = 0.012)</t>
+          <t>-0.516 (P = 0.000)</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-0.256 (P = 0.025)</t>
+          <t>-0.539 (P = 0.000)</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>-0.627 (P = 0.171)</t>
+          <t>-0.375 (P = 0.408)</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.680)</t>
+          <t>3.667 (P = 0.368)</t>
         </is>
       </c>
     </row>
@@ -13804,62 +13804,62 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>6.737</t>
+          <t>7.071</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>6.711</t>
+          <t>7.060</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>7.126</t>
+          <t>7.263</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>6.538</t>
+          <t>7.667</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>6.723</t>
+          <t>6.779</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>6.709</t>
+          <t>6.758</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>7.023</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>-0.013 (P = 0.892)</t>
+          <t>-0.292 (P = 0.000)</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-0.002 (P = 0.987)</t>
+          <t>-0.302 (P = 0.000)</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>-0.103 (P = 0.771)</t>
+          <t>-0.026 (P = 0.931)</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>0.212 (P = 0.716)</t>
+          <t>-0.667 (P = 0.184)</t>
         </is>
       </c>
     </row>
@@ -14154,62 +14154,62 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>5.826</t>
+          <t>6.177</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>5.717</t>
+          <t>6.103</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>7.119</t>
+          <t>7.659</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>6.980</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>5.766</t>
+          <t>5.798</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>5.699</t>
+          <t>5.731</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>6.918</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>-0.061 (P = 0.624)</t>
+          <t>-0.379 (P = 0.000)</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-0.017 (P = 0.894)</t>
+          <t>-0.371 (P = 0.000)</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>-0.201 (P = 0.658)</t>
+          <t>-0.659 (P = 0.052)</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.988)</t>
+          <t>2.500 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -14504,62 +14504,62 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5.790</t>
+          <t>5.835</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>5.685</t>
+          <t>5.765</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>7.006</t>
+          <t>7.191</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>6.727</t>
+          <t>5.667</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>5.615</t>
+          <t>5.636</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>5.535</t>
+          <t>5.546</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>6.960</t>
+          <t>7.191</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>8.333</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.130)</t>
+          <t>-0.199 (P = 0.040)</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-0.151 (P = 0.208)</t>
+          <t>-0.219 (P = 0.028)</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>-0.046 (P = 0.919)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.773 (P = 0.489)</t>
+          <t>2.667 (P = 0.094)</t>
         </is>
       </c>
     </row>
@@ -14854,37 +14854,37 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.786</t>
+          <t>2.591</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2.670</t>
+          <t>2.510</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>4.029</t>
+          <t>4.116</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4.922</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2.181</t>
+          <t>2.123</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2.123</t>
+          <t>2.056</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>3.326</t>
+          <t>3.465</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14894,22 +14894,22 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>-0.605 (P = 0.000)</t>
+          <t>-0.468 (P = 0.000)</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-0.547 (P = 0.000)</t>
+          <t>-0.454 (P = 0.000)</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>-0.703 (P = 0.177)</t>
+          <t>-0.651 (P = 0.209)</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>-2.422 (P = 0.218)</t>
+          <t>-1.500 (P = 0.297)</t>
         </is>
       </c>
     </row>
@@ -15204,62 +15204,62 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>7.376</t>
+          <t>7.623</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>7.393</t>
+          <t>7.635</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>7.194</t>
+          <t>7.405</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>7.106</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>7.392</t>
+          <t>7.473</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>7.393</t>
+          <t>7.474</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>7.489</t>
+          <t>7.476</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.869)</t>
+          <t>-0.150 (P = 0.041)</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>0.001 (P = 0.993)</t>
+          <t>-0.161 (P = 0.034)</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>0.295 (P = 0.444)</t>
+          <t>0.071 (P = 0.795)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>-1.106 (P = 0.151)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -15554,62 +15554,62 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>6.903</t>
+          <t>7.021</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>6.882</t>
+          <t>7.003</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>7.189</t>
+          <t>7.268</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>6.840</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>6.718</t>
+          <t>6.825</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>6.689</t>
+          <t>6.795</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>7.239</t>
+          <t>7.293</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>7.333</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>-0.186 (P = 0.058)</t>
+          <t>-0.196 (P = 0.042)</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>-0.193 (P = 0.057)</t>
+          <t>-0.208 (P = 0.036)</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>0.050 (P = 0.883)</t>
+          <t>0.024 (P = 0.955)</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.493 (P = 0.807)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -15904,62 +15904,62 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>5.446</t>
+          <t>5.763</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>5.379</t>
+          <t>5.783</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>5.294</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>6.317</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>5.708</t>
+          <t>5.747</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>5.700</t>
+          <t>5.749</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>5.786</t>
+          <t>5.735</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.041)</t>
+          <t>-0.017 (P = 0.875)</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>0.321 (P = 0.015)</t>
+          <t>-0.035 (P = 0.749)</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>-0.394 (P = 0.441)</t>
+          <t>0.441 (P = 0.243)</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>1.183 (P = 0.719)</t>
+          <t>-3.000</t>
         </is>
       </c>
     </row>
@@ -16254,62 +16254,62 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>5.366</t>
+          <t>5.486</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>5.267</t>
+          <t>5.456</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>6.468</t>
+          <t>5.952</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>6.648</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>5.039</t>
+          <t>5.072</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>5.003</t>
+          <t>5.026</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>5.660</t>
+          <t>5.857</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>6.333</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.009)</t>
+          <t>-0.415 (P = 0.000)</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>-0.264 (P = 0.041)</t>
+          <t>-0.430 (P = 0.000)</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>-0.808 (P = 0.115)</t>
+          <t>-0.095 (P = 0.804)</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>-0.315 (P = 0.905)</t>
+          <t>-0.500 (P = 0.795)</t>
         </is>
       </c>
     </row>
@@ -16604,62 +16604,62 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.281</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>7.236</t>
+          <t>7.270</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>7.186</t>
+          <t>7.512</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>6.609</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>7.288</t>
+          <t>7.338</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.342</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>7.174</t>
+          <t>7.244</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.457)</t>
+          <t>0.057 (P = 0.509)</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>0.060 (P = 0.490)</t>
+          <t>0.072 (P = 0.419)</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>-0.012 (P = 0.971)</t>
+          <t>-0.268 (P = 0.445)</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>-0.109 (P = 0.954)</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -16954,62 +16954,62 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7.161</t>
+          <t>7.388</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>7.178</t>
+          <t>7.390</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>6.985</t>
+          <t>7.297</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>6.766</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>7.748</t>
+          <t>7.824</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>7.804</t>
+          <t>7.865</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>6.688</t>
+          <t>6.946</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>0.588 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>0.626 (P = 0.000)</t>
+          <t>0.475 (P = 0.000)</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>-0.298 (P = 0.445)</t>
+          <t>-0.351 (P = 0.250)</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>1.234 (P = 0.342)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -17304,37 +17304,37 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.514</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.529</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>6.496</t>
+          <t>6.241</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>5.976</t>
+          <t>5.667</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>6.093</t>
+          <t>6.215</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>6.111</t>
+          <t>6.208</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>5.707</t>
+          <t>6.379</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17344,22 +17344,22 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.001)</t>
+          <t>-0.299 (P = 0.003)</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>-0.309 (P = 0.003)</t>
+          <t>-0.321 (P = 0.002)</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>-0.789 (P = 0.133)</t>
+          <t>0.138 (P = 0.614)</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>0.357 (P = 0.660)</t>
+          <t>0.667 (P = 0.423)</t>
         </is>
       </c>
     </row>
@@ -17654,62 +17654,62 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>5.260</t>
+          <t>5.367</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>5.174</t>
+          <t>5.312</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>6.254</t>
+          <t>6.390</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>6.292</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>4.788</t>
+          <t>4.814</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>4.726</t>
+          <t>4.746</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>5.867</t>
+          <t>6.024</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>6.667</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>-0.473 (P = 0.000)</t>
+          <t>-0.553 (P = 0.000)</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>-0.448 (P = 0.000)</t>
+          <t>-0.565 (P = 0.000)</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>-0.387 (P = 0.430)</t>
+          <t>-0.366 (P = 0.416)</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>0.375 (P = 0.844)</t>
+          <t>2.000</t>
         </is>
       </c>
     </row>
@@ -18003,62 +18003,62 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>7.156</t>
+          <t>7.402</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>7.181</t>
+          <t>7.424</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>6.942</t>
+          <t>6.927</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>6.286</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>7.449</t>
+          <t>7.535</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>7.473</t>
+          <t>7.549</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>6.889</t>
+          <t>7.171</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>9.000</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>0.293 (P = 0.000)</t>
+          <t>0.133 (P = 0.065)</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>0.292 (P = 0.001)</t>
+          <t>0.125 (P = 0.090)</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>-0.054 (P = 0.901)</t>
+          <t>0.244 (P = 0.491)</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2.714 (P = 0.198)</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -18352,62 +18352,62 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>7.189</t>
+          <t>7.723</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>7.332</t>
+          <t>7.786</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>5.495</t>
+          <t>6.341</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>5.360</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>7.887</t>
+          <t>7.955</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>7.967</t>
+          <t>8.014</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>6.347</t>
+          <t>6.682</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>0.698 (P = 0.000)</t>
+          <t>0.232 (P = 0.000)</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>0.635 (P = 0.000)</t>
+          <t>0.228 (P = 0.000)</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>0.852 (P = 0.032)</t>
+          <t>0.341 (P = 0.262)</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2.140 (P = 0.379)</t>
+          <t>-1.000</t>
         </is>
       </c>
     </row>
@@ -18701,62 +18701,62 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>5.486</t>
+          <t>5.389</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>5.450</t>
+          <t>5.383</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>5.912</t>
+          <t>5.459</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>6.024</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>5.811</t>
+          <t>5.884</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>5.835</t>
+          <t>5.898</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>5.310</t>
+          <t>5.568</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>5.667</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>0.325 (P = 0.000)</t>
+          <t>0.496 (P = 0.000)</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>0.386 (P = 0.000)</t>
+          <t>0.515 (P = 0.000)</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>-0.603 (P = 0.079)</t>
+          <t>0.108 (P = 0.706)</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>-0.357 (P = 0.663)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -19050,62 +19050,62 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>6.506</t>
+          <t>6.393</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>6.475</t>
+          <t>6.374</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>6.877</t>
+          <t>6.761</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>6.851</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>6.906</t>
+          <t>6.901</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>6.888</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>7.149</t>
+          <t>7.130</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>0.401 (P = 0.000)</t>
+          <t>0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>0.419 (P = 0.000)</t>
+          <t>0.514 (P = 0.000)</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>0.272 (P = 0.451)</t>
+          <t>0.370 (P = 0.292)</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>0.149 (P = 0.857)</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -19400,62 +19400,62 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>3.605</t>
+          <t>3.741</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>3.510</t>
+          <t>3.701</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>4.682</t>
+          <t>4.633</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>5.302</t>
+          <t>4.667</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>3.523</t>
+          <t>3.570</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>3.483</t>
+          <t>3.518</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>4.175</t>
+          <t>4.567</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>-0.082 (P = 0.493)</t>
+          <t>-0.171 (P = 0.107)</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>-0.027 (P = 0.823)</t>
+          <t>-0.182 (P = 0.092)</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>-0.507 (P = 0.395)</t>
+          <t>-0.067 (P = 0.907)</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>0.448 (P = 0.723)</t>
+          <t>1.667 (P = 0.370)</t>
         </is>
       </c>
     </row>
@@ -19750,37 +19750,37 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>5.936</t>
+          <t>5.856</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>5.932</t>
+          <t>5.891</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>5.931</t>
+          <t>5.075</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>6.381</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.202</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>6.141</t>
+          <t>6.247</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>5.133</t>
+          <t>5.225</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19790,22 +19790,22 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.147)</t>
+          <t>0.346 (P = 0.004)</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>0.209 (P = 0.065)</t>
+          <t>0.356 (P = 0.004)</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>-0.798 (P = 0.091)</t>
+          <t>0.150 (P = 0.776)</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>0.619 (P = 0.809)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -20100,62 +20100,62 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>7.273</t>
+          <t>7.565</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>7.335</t>
+          <t>7.592</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>6.359</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>7.657</t>
+          <t>7.856</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>7.712</t>
+          <t>7.896</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>6.564</t>
+          <t>6.968</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>5.667</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>0.384 (P = 0.000)</t>
+          <t>0.290 (P = 0.003)</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>0.377 (P = 0.000)</t>
+          <t>0.304 (P = 0.002)</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>0.098 (P = 0.844)</t>
+          <t>-0.032 (P = 0.951)</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>-0.692 (P = 0.162)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -20450,62 +20450,62 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>7.521</t>
+          <t>7.874</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>7.588</t>
+          <t>7.941</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>6.703</t>
+          <t>6.537</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>6.612</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>8.020</t>
+          <t>8.103</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>8.098</t>
+          <t>8.175</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>6.533</t>
+          <t>6.610</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>7.333</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.000)</t>
+          <t>0.229 (P = 0.001)</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>0.510 (P = 0.000)</t>
+          <t>0.234 (P = 0.001)</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>-0.170 (P = 0.671)</t>
+          <t>0.073 (P = 0.804)</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>0.138 (P = 0.916)</t>
+          <t>1.000 (P = 0.678)</t>
         </is>
       </c>
     </row>
@@ -20800,37 +20800,37 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>6.631</t>
+          <t>7.124</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>6.615</t>
+          <t>7.159</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>6.908</t>
+          <t>6.452</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>6.275</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>7.196</t>
+          <t>7.287</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>7.187</t>
+          <t>7.275</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>7.362</t>
+          <t>7.524</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -20840,22 +20840,22 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>0.565 (P = 0.000)</t>
+          <t>0.162 (P = 0.017)</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>0.572 (P = 0.000)</t>
+          <t>0.116 (P = 0.090)</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>0.454 (P = 0.242)</t>
+          <t>1.071 (P = 0.012)</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>1.225 (P = 0.189)</t>
+          <t>1.500 (P = 0.656)</t>
         </is>
       </c>
     </row>
@@ -21150,37 +21150,37 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>6.448</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>6.402</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>7.027</t>
+          <t>7.026</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>6.765</t>
+          <t>5.500</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>6.821</t>
+          <t>6.889</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>6.839</t>
+          <t>6.907</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>6.478</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21190,22 +21190,22 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>0.374 (P = 0.001)</t>
+          <t>-0.049 (P = 0.493)</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>0.437 (P = 0.000)</t>
+          <t>-0.031 (P = 0.677)</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>-0.549 (P = 0.240)</t>
+          <t>-0.526 (P = 0.177)</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>-0.265 (P = 0.889)</t>
+          <t>1.000 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -21500,62 +21500,62 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>5.833</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>5.801</t>
+          <t>6.292</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>6.167</t>
+          <t>5.941</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>6.432</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>5.505</t>
+          <t>5.664</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>5.498</t>
+          <t>5.671</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>5.634</t>
+          <t>5.500</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.005)</t>
+          <t>-0.614 (P = 0.000)</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.012)</t>
+          <t>-0.621 (P = 0.000)</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>-0.533 (P = 0.320)</t>
+          <t>-0.441 (P = 0.331)</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>-0.682 (P = 0.119)</t>
+          <t>-1.000</t>
         </is>
       </c>
     </row>
@@ -21850,62 +21850,62 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>5.702</t>
+          <t>5.720</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>5.659</t>
+          <t>5.719</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>6.227</t>
+          <t>5.810</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>6.086</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>4.907</t>
+          <t>5.211</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>4.883</t>
+          <t>5.169</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>5.412</t>
+          <t>6.381</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>5.333</t>
+          <t>5.500</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>-0.796 (P = 0.000)</t>
+          <t>-0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>-0.776 (P = 0.000)</t>
+          <t>-0.550 (P = 0.000)</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>-0.815 (P = 0.126)</t>
+          <t>0.571 (P = 0.460)</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>-0.752 (P = 0.490)</t>
+          <t>0.500 (P = 0.795)</t>
         </is>
       </c>
     </row>
@@ -22200,62 +22200,62 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6.038</t>
+          <t>6.125</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>6.014</t>
+          <t>6.107</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>6.327</t>
+          <t>6.571</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>6.191</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>5.392</t>
+          <t>5.491</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>5.376</t>
+          <t>5.461</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>5.667</t>
+          <t>6.086</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
+          <t>-0.635 (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
           <t>-0.646 (P = 0.000)</t>
         </is>
       </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>-0.638 (P = 0.000)</t>
-        </is>
-      </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>-0.660 (P = 0.183)</t>
+          <t>-0.486 (P = 0.342)</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>0.809 (P = 0.563)</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -22550,62 +22550,62 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>4.972</t>
+          <t>5.167</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>4.909</t>
+          <t>5.114</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>5.725</t>
+          <t>6.053</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>5.682</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>5.459</t>
+          <t>5.474</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>5.458</t>
+          <t>5.460</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>5.512</t>
+          <t>5.605</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>5.250</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>0.487 (P = 0.000)</t>
+          <t>0.306 (P = 0.003)</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>0.548 (P = 0.000)</t>
+          <t>0.346 (P = 0.001)</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>-0.213 (P = 0.666)</t>
+          <t>-0.447 (P = 0.366)</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>-0.432 (P = 0.824)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -22900,37 +22900,37 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>6.369</t>
+          <t>6.862</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>6.352</t>
+          <t>6.884</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>6.594</t>
+          <t>6.390</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>6.476</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>6.422</t>
+          <t>6.576</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>6.435</t>
+          <t>6.584</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>6.091</t>
+          <t>6.366</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -22940,22 +22940,22 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>0.053 (P = 0.602)</t>
+          <t>-0.286 (P = 0.002)</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>0.083 (P = 0.430)</t>
+          <t>-0.300 (P = 0.001)</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>-0.503 (P = 0.257)</t>
+          <t>-0.024 (P = 0.945)</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>1.524 (P = 0.356)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -23250,37 +23250,37 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>4.338</t>
+          <t>4.534</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>4.497</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>5.525</t>
+          <t>5.654</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>5.657</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>4.523</t>
+          <t>4.549</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>4.528</t>
+          <t>4.529</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>4.359</t>
+          <t>5.038</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23290,22 +23290,22 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.155)</t>
+          <t>0.016 (P = 0.871)</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>0.278 (P = 0.038)</t>
+          <t>0.032 (P = 0.743)</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>-1.166 (P = 0.031)</t>
+          <t>-0.615 (P = 0.103)</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>1.343</t>
+          <t>4.000</t>
         </is>
       </c>
     </row>
@@ -23600,37 +23600,37 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>5.135</t>
+          <t>5.561</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>5.087</t>
+          <t>5.521</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>5.789</t>
+          <t>6.630</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>5.735</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>5.809</t>
+          <t>5.758</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>5.797</t>
+          <t>5.725</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>6.027</t>
+          <t>6.556</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -23640,22 +23640,22 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>0.674 (P = 0.000)</t>
+          <t>0.197 (P = 0.079)</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>0.709 (P = 0.000)</t>
+          <t>0.203 (P = 0.076)</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>0.238 (P = 0.637)</t>
+          <t>-0.074 (P = 0.894)</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2.265</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -23950,62 +23950,62 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>5.802</t>
+          <t>5.569</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>5.759</t>
+          <t>5.525</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>6.390</t>
+          <t>6.760</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>6.049</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>5.165</t>
+          <t>5.141</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>5.122</t>
+          <t>5.091</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>6.118</t>
+          <t>6.520</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>-0.638 (P = 0.000)</t>
+          <t>-0.427 (P = 0.000)</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>-0.637 (P = 0.000)</t>
+          <t>-0.435 (P = 0.001)</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>-0.272 (P = 0.595)</t>
+          <t>-0.240 (P = 0.672)</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>0.451 (P = 0.528)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -24300,62 +24300,62 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>6.438</t>
+          <t>6.309</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>6.436</t>
+          <t>6.300</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>6.516</t>
+          <t>6.567</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>6.227</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>6.286</t>
+          <t>6.317</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>6.313</t>
+          <t>6.328</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>5.791</t>
+          <t>6.067</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>5.667</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.138)</t>
+          <t>0.008 (P = 0.944)</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>-0.122 (P = 0.248)</t>
+          <t>0.029 (P = 0.804)</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>-0.725 (P = 0.086)</t>
+          <t>-0.500 (P = 0.188)</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>-0.561 (P = 0.504)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -24650,37 +24650,37 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>6.204</t>
+          <t>6.366</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>6.183</t>
+          <t>6.342</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>6.436</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>6.029</t>
+          <t>6.102</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>6.064</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>6.595</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -24690,22 +24690,22 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.098)</t>
+          <t>-0.264 (P = 0.019)</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>-0.183 (P = 0.095)</t>
+          <t>-0.278 (P = 0.017)</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>0.129 (P = 0.755)</t>
+          <t>-0.062 (P = 0.865)</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>-0.103 (P = 0.896)</t>
+          <t>1.000 (P = 0.423)</t>
         </is>
       </c>
     </row>
@@ -25000,62 +25000,62 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>5.095</t>
+          <t>5.139</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>5.018</t>
+          <t>5.103</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>6.025</t>
+          <t>5.929</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>5.905</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>5.115</t>
+          <t>5.137</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>5.067</t>
+          <t>5.071</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>6.100</t>
+          <t>6.643</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.858)</t>
+          <t>-0.001 (P = 0.990)</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>0.049 (P = 0.681)</t>
+          <t>-0.032 (P = 0.784)</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>0.075 (P = 0.856)</t>
+          <t>0.714 (P = 0.296)</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>-0.405 (P = 0.563)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -25350,62 +25350,62 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>4.896</t>
+          <t>4.899</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>4.817</t>
+          <t>4.858</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>5.732</t>
+          <t>5.694</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>6.447</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>4.593</t>
+          <t>4.583</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>4.523</t>
+          <t>4.502</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>5.976</t>
+          <t>6.250</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.011)</t>
+          <t>-0.316 (P = 0.009)</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>-0.295 (P = 0.016)</t>
+          <t>-0.356 (P = 0.004)</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>0.244 (P = 0.633)</t>
+          <t>0.556 (P = 0.370)</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>0.053 (P = 0.978)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -25700,62 +25700,62 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>6.972</t>
+          <t>7.327</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>6.969</t>
+          <t>7.342</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>6.944</t>
+          <t>6.977</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>7.672</t>
+          <t>7.763</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>7.702</t>
+          <t>7.784</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>7.043</t>
+          <t>7.318</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>8.333</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>0.700 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>0.733 (P = 0.000)</t>
+          <t>0.442 (P = 0.000)</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>0.098 (P = 0.825)</t>
+          <t>0.341 (P = 0.490)</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>0.953 (P = 0.073)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -26050,32 +26050,32 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>7.881</t>
+          <t>8.205</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>7.871</t>
+          <t>8.188</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>8.479</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>7.889</t>
+          <t>8.800</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>8.211</t>
+          <t>8.220</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>8.191</t>
+          <t>8.200</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -26090,22 +26090,22 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.000)</t>
+          <t>0.015 (P = 0.811)</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>0.319 (P = 0.001)</t>
+          <t>0.012 (P = 0.856)</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>0.542 (P = 0.119)</t>
+          <t>0.062 (P = 0.851)</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>1.111 (P = 0.338)</t>
+          <t>0.200 (P = 0.704)</t>
         </is>
       </c>
     </row>
@@ -26400,37 +26400,37 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>7.841</t>
+          <t>8.178</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>7.822</t>
+          <t>8.159</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>8.092</t>
+          <t>8.426</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>7.815</t>
+          <t>9.400</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>8.215</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>8.191</t>
+          <t>8.188</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>8.440</t>
+          <t>8.617</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26440,22 +26440,22 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>0.370 (P = 0.000)</t>
+          <t>0.037 (P = 0.589)</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>0.370 (P = 0.000)</t>
+          <t>0.029 (P = 0.689)</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>0.348 (P = 0.291)</t>
+          <t>0.191 (P = 0.445)</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>1.785 (P = 0.006)</t>
+          <t>0.200 (P = 0.374)</t>
         </is>
       </c>
     </row>
@@ -26750,62 +26750,62 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>8.059</t>
+          <t>8.324</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>8.067</t>
+          <t>8.335</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>8.087</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>7.806</t>
+          <t>8.250</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>8.334</t>
+          <t>8.352</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>8.328</t>
+          <t>8.341</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>8.449</t>
+          <t>8.522</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>8.200</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>0.274 (P = 0.001)</t>
+          <t>0.028 (P = 0.687)</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.002)</t>
+          <t>0.005 (P = 0.941)</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>0.449 (P = 0.151)</t>
+          <t>0.435 (P = 0.184)</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>0.394 (P = 0.748)</t>
+          <t>0.750 (P = 0.215)</t>
         </is>
       </c>
     </row>
@@ -27100,62 +27100,62 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>8.964</t>
+          <t>9.181</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>8.999</t>
+          <t>9.177</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>8.572</t>
+          <t>9.261</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>8.581</t>
+          <t>9.250</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>9.152</t>
+          <t>9.156</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>9.151</t>
+          <t>9.148</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>9.125</t>
+          <t>9.283</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>9.600</t>
+          <t>9.500</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.001)</t>
+          <t>-0.025 (P = 0.682)</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>0.151 (P = 0.012)</t>
+          <t>-0.029 (P = 0.653)</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>0.553 (P = 0.032)</t>
+          <t>0.022 (P = 0.927)</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>1.019 (P = 0.068)</t>
+          <t>0.250 (P = 0.391)</t>
         </is>
       </c>
     </row>
@@ -27450,37 +27450,37 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>8.234</t>
+          <t>8.524</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>8.220</t>
+          <t>8.509</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>8.438</t>
+          <t>8.787</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>8.048</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>8.563</t>
+          <t>8.572</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>8.541</t>
+          <t>8.547</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>8.920</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27490,22 +27490,22 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>0.329 (P = 0.000)</t>
+          <t>0.047 (P = 0.469)</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>0.321 (P = 0.000)</t>
+          <t>0.038 (P = 0.571)</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>0.482 (P = 0.071)</t>
+          <t>0.213 (P = 0.459)</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>1.202 (P = 0.080)</t>
+          <t>0.250 (P = 0.391)</t>
         </is>
       </c>
     </row>
@@ -27800,37 +27800,37 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>8.346</t>
+          <t>8.548</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>8.359</t>
+          <t>8.564</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>8.231</t>
+          <t>8.196</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>8.062</t>
+          <t>8.800</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>8.584</t>
+          <t>8.603</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>8.362</t>
+          <t>8.413</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -27840,22 +27840,22 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.002)</t>
+          <t>0.051 (P = 0.448)</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>0.225 (P = 0.003)</t>
+          <t>0.039 (P = 0.570)</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>0.131 (P = 0.719)</t>
+          <t>0.217 (P = 0.313)</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>1.338 (P = 0.091)</t>
+          <t>0.600 (P = 0.208)</t>
         </is>
       </c>
     </row>
@@ -28150,37 +28150,37 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>8.095</t>
+          <t>8.274</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>8.104</t>
+          <t>8.267</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>8.055</t>
+          <t>8.468</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>7.641</t>
+          <t>7.800</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>8.221</t>
+          <t>8.241</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>8.226</t>
+          <t>8.238</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>8.061</t>
+          <t>8.255</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -28190,22 +28190,22 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>0.126 (P = 0.094)</t>
+          <t>-0.033 (P = 0.655)</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>0.122 (P = 0.117)</t>
+          <t>-0.029 (P = 0.701)</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>0.006 (P = 0.986)</t>
+          <t>-0.213 (P = 0.420)</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>1.159 (P = 0.231)</t>
+          <t>1.000 (P = 0.189)</t>
         </is>
       </c>
     </row>
@@ -28500,37 +28500,37 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>8.586</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>8.335</t>
+          <t>8.596</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>7.924</t>
+          <t>8.348</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>8.125</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>8.536</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>8.555</t>
+          <t>8.576</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>8.204</t>
+          <t>8.435</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28540,22 +28540,22 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>0.233 (P = 0.003)</t>
+          <t>-0.018 (P = 0.795)</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>0.220 (P = 0.006)</t>
+          <t>-0.020 (P = 0.791)</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>0.280 (P = 0.447)</t>
+          <t>0.087 (P = 0.736)</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>0.075 (P = 0.959)</t>
+          <t>-0.800 (P = 0.642)</t>
         </is>
       </c>
     </row>
@@ -28850,62 +28850,62 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>7.786</t>
+          <t>7.827</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>7.813</t>
+          <t>7.850</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>7.580</t>
+          <t>7.283</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>6.933</t>
+          <t>9.333</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>7.844</t>
+          <t>7.855</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>7.838</t>
+          <t>7.847</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>7.833</t>
+          <t>7.870</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>9.250</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>0.058 (P = 0.460)</t>
+          <t>0.028 (P = 0.704)</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>0.025 (P = 0.752)</t>
+          <t>-0.002 (P = 0.977)</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>0.253 (P = 0.538)</t>
+          <t>0.587 (P = 0.077)</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2.317 (P = 0.043)</t>
+          <t>0.667 (P = 0.423)</t>
         </is>
       </c>
     </row>
@@ -29200,27 +29200,27 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>7.446</t>
+          <t>7.749</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>7.416</t>
+          <t>7.736</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>7.839</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>7.441</t>
+          <t>7.800</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>7.703</t>
+          <t>7.713</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>8.208</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -29240,22 +29240,22 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>0.257 (P = 0.005)</t>
+          <t>-0.035 (P = 0.599)</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>0.264 (P = 0.006)</t>
+          <t>-0.056 (P = 0.421)</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>0.161 (P = 0.644)</t>
+          <t>0.208 (P = 0.462)</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>1.759 (P = 0.035)</t>
+          <t>1.400 (P = 0.447)</t>
         </is>
       </c>
     </row>
@@ -29550,37 +29550,37 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
+          <t>8.610</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>8.623</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
           <t>8.391</t>
         </is>
       </c>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>8.438</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>7.994</t>
-        </is>
-      </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>7.234</t>
+          <t>8.200</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>8.574</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>8.570</t>
+          <t>8.564</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>8.617</t>
+          <t>8.587</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -29590,22 +29590,22 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.013)</t>
+          <t>-0.043 (P = 0.541)</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>0.132 (P = 0.085)</t>
+          <t>-0.059 (P = 0.409)</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>0.623 (P = 0.031)</t>
+          <t>0.196 (P = 0.577)</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>1.766 (P = 0.085)</t>
+          <t>0.800 (P = 0.495)</t>
         </is>
       </c>
     </row>
@@ -29900,27 +29900,27 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>7.822</t>
+          <t>7.788</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>7.866</t>
+          <t>7.824</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>7.319</t>
+          <t>6.952</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>7.397</t>
+          <t>8.750</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>7.744</t>
+          <t>7.740</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -29930,32 +29930,32 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>7.419</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>8.800</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>-0.078 (P = 0.344)</t>
+          <t>-0.048 (P = 0.527)</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>-0.113 (P = 0.184)</t>
+          <t>-0.070 (P = 0.373)</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>0.100 (P = 0.787)</t>
+          <t>0.429 (P = 0.197)</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>1.403 (P = 0.228)</t>
+          <t>-0.250 (P = 0.824)</t>
         </is>
       </c>
     </row>
@@ -30250,62 +30250,62 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>8.038</t>
+          <t>8.082</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>8.105</t>
+          <t>8.118</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>7.370</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>6.885</t>
+          <t>6.750</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>8.110</t>
+          <t>8.116</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>8.125</t>
+          <t>8.132</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>7.771</t>
+          <t>7.783</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>8.600</t>
+          <t>8.250</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>0.072 (P = 0.343)</t>
+          <t>0.033 (P = 0.666)</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.795)</t>
+          <t>0.014 (P = 0.857)</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>0.401 (P = 0.250)</t>
+          <t>0.283 (P = 0.414)</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>1.715 (P = 0.142)</t>
+          <t>1.500 (P = 0.391)</t>
         </is>
       </c>
     </row>
@@ -30600,62 +30600,62 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>8.753</t>
+          <t>8.879</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>8.814</t>
+          <t>8.901</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>8.124</t>
+          <t>8.391</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>7.862</t>
+          <t>9.250</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>8.873</t>
+          <t>8.871</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>8.893</t>
+          <t>8.894</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>8.426</t>
+          <t>8.391</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>9.200</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>0.120 (P = 0.051)</t>
+          <t>-0.008 (P = 0.894)</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>0.079 (P = 0.210)</t>
+          <t>-0.007 (P = 0.905)</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>0.302 (P = 0.297)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>1.338 (P = 0.085)</t>
+          <t>-0.250 (P = 0.391)</t>
         </is>
       </c>
     </row>
@@ -30950,37 +30950,37 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>8.465</t>
+          <t>8.559</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>8.517</t>
+          <t>8.579</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>8.006</t>
+          <t>8.200</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>8.516</t>
+          <t>8.523</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>8.521</t>
+          <t>8.527</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>8.478</t>
+          <t>8.511</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -30990,22 +30990,22 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>0.051 (P = 0.452)</t>
+          <t>-0.036 (P = 0.555)</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.958)</t>
+          <t>-0.052 (P = 0.404)</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>0.472 (P = 0.092)</t>
+          <t>0.311 (P = 0.333)</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>0.524 (P = 0.743)</t>
+          <t>-0.250 (P = 0.824)</t>
         </is>
       </c>
     </row>
@@ -31300,22 +31300,22 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>0.749</t>
+          <t>0.805</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>0.378</t>
+          <t>0.385</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>0.194</t>
+          <t>0.200</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -31340,22 +31340,22 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>0.099 (P = 0.000)</t>
+          <t>0.032 (P = 0.003)</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>0.087 (P = 0.000)</t>
+          <t>0.031 (P = 0.004)</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>0.064 (P = 0.391)</t>
+          <t>0.058 (P = 0.411)</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>0.006 (P = 0.980)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -31621,22 +31621,22 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -31902,22 +31902,22 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -32183,22 +32183,22 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -32423,37 +32423,37 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>56.082</t>
+          <t>58.239</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>56.237</t>
+          <t>58.125</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>54.660</t>
+          <t>62.000</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>51.148</t>
+          <t>39.667</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>59.365</t>
+          <t>59.629</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>59.270</t>
+          <t>59.549</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>62.021</t>
+          <t>62.186</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -32463,22 +32463,22 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>3.283 (P = 0.004)</t>
+          <t>1.390 (P = 0.003)</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>3.033 (P = 0.012)</t>
+          <t>1.423 (P = 0.003)</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>7.361 (P = 0.062)</t>
+          <t>0.186 (P = 0.951)</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>-3.148 (P = 0.712)</t>
+          <t>8.333 (P = 0.199)</t>
         </is>
       </c>
     </row>
@@ -32772,62 +32772,62 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>35.098</t>
+          <t>31.026</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>34.665</t>
+          <t>30.775</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>40.823</t>
+          <t>36.872</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>41.000</t>
+          <t>32.000</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>31.701</t>
+          <t>31.393</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>31.608</t>
+          <t>31.338</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>32.956</t>
+          <t>32.231</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>42.333</t>
+          <t>40.500</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>-3.396 (P = 0.001)</t>
+          <t>0.367 (P = 0.566)</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>-3.057 (P = 0.005)</t>
+          <t>0.563 (P = 0.387)</t>
         </is>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>-7.868 (P = 0.072)</t>
+          <t>-4.641 (P = 0.190)</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>1.333 (P = 0.959)</t>
+          <t>8.500 (P = 0.595)</t>
         </is>
       </c>
     </row>
@@ -33122,62 +33122,62 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>46.536</t>
+          <t>48.295</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>46.378</t>
+          <t>48.092</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>48.689</t>
+          <t>53.200</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>47.956</t>
+          <t>50.000</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>50.572</t>
+          <t>50.740</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>50.519</t>
+          <t>50.592</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>52.561</t>
+          <t>54.286</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>39.333</t>
+          <t>53.000</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>4.037 (P = 0.000)</t>
+          <t>2.445 (P = 0.001)</t>
         </is>
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>4.141 (P = 0.000)</t>
+          <t>2.500 (P = 0.000)</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>3.872 (P = 0.369)</t>
+          <t>1.086 (P = 0.819)</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>-8.622 (P = 0.608)</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -33471,62 +33471,62 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>51.524</t>
+          <t>54.388</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>51.538</t>
+          <t>54.407</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>51.512</t>
+          <t>52.425</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>50.267</t>
+          <t>85.000</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>55.135</t>
+          <t>55.711</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>55.007</t>
+          <t>55.524</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>56.267</t>
+          <t>57.800</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>72.250</t>
+          <t>98.500</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>3.611 (P = 0.004)</t>
+          <t>1.323 (P = 0.012)</t>
         </is>
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>3.470 (P = 0.007)</t>
+          <t>1.117 (P = 0.034)</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>4.754 (P = 0.319)</t>
+          <t>5.375 (P = 0.137)</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>21.983 (P = 0.247)</t>
+          <t>13.500 (P = 0.500)</t>
         </is>
       </c>
     </row>
@@ -33820,27 +33820,27 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>5.316</t>
+          <t>5.499</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>5.283</t>
+          <t>5.487</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>5.708</t>
+          <t>5.591</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>5.920</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>5.698</t>
+          <t>5.704</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -33850,32 +33850,32 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>6.146</t>
+          <t>6.273</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>6.400</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>0.382 (P = 0.000)</t>
+          <t>0.205 (P = 0.000)</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>0.389 (P = 0.000)</t>
+          <t>0.186 (P = 0.002)</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>0.438 (P = 0.291)</t>
+          <t>0.682 (P = 0.049)</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>0.480 (P = 0.665)</t>
+          <t>-1.500 (P = 0.500)</t>
         </is>
       </c>
     </row>
